--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\scrapper\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8992F9C-59F4-40E3-B5C3-C6E85128B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2409B2-4D28-415C-8E73-22C369A80FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2640" windowWidth="24915" windowHeight="12165" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Выберите несколько правильных ответов. Вы хотите, чтобы GigaСhat предложил вам идеальное место для отдыха. Какие элементы в промпте должны быть для подходящего ответа? Составьте из этих элементов промпт в GigaСhat.
 </t>
@@ -220,12 +218,59 @@
   <si>
     <t>Название языка вдохновлено телепередачей «Monty Python's Flying Circus».</t>
   </si>
+  <si>
+    <t>С помощью ЯндексGPT соотнесите название встроенной функции с ее назначением.</t>
+  </si>
+  <si>
+    <t>Определите номер строки, где есть ошибка.  Для этого воспользуйтесь ЯндексGPT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перед Вами код программы разобранной с помощью YandexGPT на занятии. Программа применяет скидку в 10% к итоговой стоимости товара, если товар дороже 500 рублей и выводит полученное значение.
+Измените функцию calculate_price (и только её) таким образом, чтобы к товару применялась скидка 25%, если он стоит дороже 1500 рублей.
+Цена товара, передающаяся программе на вход с клавиатуры, всегда является целым неотрицательным числом.
+</t>
+  </si>
+  <si>
+    <t>def calculate_price(price):
+    if price &gt; 500:
+        discount = price * 0.25
+        return price - discount
+    else:
+        return price
+# Ввод цены товара
+price = float(input())
+# Вызов функции и вывод стоимости товара результата
+result = calculate_price(price)
+print(result)</t>
+  </si>
+  <si>
+    <t>Нейросеточка анализировала файл с последовательностью целых чисел (от -10 000 до 10 000) и обнаружила интересную закономерность. Она хочет найти:
+Все пары соседних чисел, где:
+Только одно число в паре оканчивается на 3 (учтите, что для отрицательных чисел остаток от деления на 10 работает нестандартно!)
+Сумма квадратов чисел пары ≥ квадрата максимального числа в последовательности, оканчивающегося на 3
+В результате нужно вывести:
+Количество таких пар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Искусственный интеллект анализирует текстовые файлы, содержащие последовательности символов S, R и T (объёмом до 1 миллиона символов). Алгоритму необходимо определить длину самой длинной непрерывной подпоследовательности из символов R.
+Технические требования:
+Входные данные: текстовый файл, содержащий только символы S, R, T
+Гарантируется наличие минимум одного символа R в файле
+Выходные данные: целое число - максимальное количество подряд идущих R
+</t>
+  </si>
+  <si>
+    <t>{"Эта функция показывает тип данных переменной или объекта.":"type()",
+"Генерирует последовательность чисел, которая обычно используется в циклах.": "range()",
+"Возвращает результат возведения числа в степень, также может принимать модуль для вычисления по модулю.": "pow()",
+"Преобразует целое число в его двоичное представление в виде строки, добавляя префикс "0b".": "bin()"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,17 +309,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -293,12 +338,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C25" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C27" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58F284BC-28A2-453E-8CDA-9748C0281436}" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{72D171CC-B0FC-468F-BD45-BAC98963EC86}" name="Homework" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E97B2154-5C8D-44FA-8406-5AC3956888F3}" name="Answer" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{58F284BC-28A2-453E-8CDA-9748C0281436}" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{72D171CC-B0FC-468F-BD45-BAC98963EC86}" name="Homework" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E97B2154-5C8D-44FA-8406-5AC3956888F3}" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,19 +666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" customWidth="1"/>
+    <col min="1" max="2" width="62.8984375" customWidth="1"/>
+    <col min="3" max="3" width="79.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -644,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="69">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="41.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="41.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="55.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="69">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -710,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="55.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -724,7 +769,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="69">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -735,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="27.6">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -746,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="55.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -757,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="55.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -768,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="27.6">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -779,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="165.6">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -790,7 +835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="96.6">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -801,7 +846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="27.6">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -812,7 +857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="124.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -823,7 +868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -834,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="27.6">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -845,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="193.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -856,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="124.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -867,7 +912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -878,20 +923,60 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
+    <row r="23" spans="1:3" ht="96.6">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6009</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6009</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="179.4">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6009</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="193.2">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6009</v>
+      </c>
+      <c r="C26" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="207">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6009</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\scrapper\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2409B2-4D28-415C-8E73-22C369A80FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8307FD-305B-410A-9C1E-4B0E74F4CE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Выберите несколько правильных ответов. Вы хотите, чтобы GigaСhat предложил вам идеальное место для отдыха. Какие элементы в промпте должны быть для подходящего ответа? Составьте из этих элементов промпт в GigaСhat.
 </t>
@@ -265,18 +265,71 @@
 "Возвращает результат возведения числа в степень, также может принимать модуль для вычисления по модулю.": "pow()",
 "Преобразует целое число в его двоичное представление в виде строки, добавляя префикс "0b".": "bin()"}</t>
   </si>
+  <si>
+    <t xml:space="preserve">Задайте промпт для ЯндексGPT: Какая строка кода предназначена для поворота изображения по часовой стрелке на 90 градусов. Выберите правильный ответ.
+</t>
+  </si>
+  <si>
+    <t>rotated image = cv2.rotate(image,
+c2.ROTATE _90_CLOCKWISE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ниже предложен код программы.
+Используя GigaChat, определите, в какой строке была допущена ошибка при условии, что необходимо было повернуть изображение против часовой стрелки? В качестве ответа введите номер строки.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое пиксель в цифровом изображении?
+</t>
+  </si>
+  <si>
+    <t>Наименьшая единица цифрового изображения, содержащая информацию
+о его цвете и яркости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сопоставьте цветовые пространства с их описанием. Затем создайте промпт в YandexGPT для получения дополнительной информации о цветовых пространствах.
+</t>
+  </si>
+  <si>
+    <t>{"Используется в цифровых экранах и камерах. Основано на трех цветах: красном, зеленом и синем": "RGB",
+"Цветовое пространство, описывающее цвет через оттенок, насыщенность и значение яркости": "HSV",
+"Используется по умолчанию в библиотеке OpenCV": "BGR"}</t>
+  </si>
+  <si>
+    <t>Вы изучаете новую тему по работе с библиотекой OpenCV и видите код, который не понимаете. Выберите несколько вариантов промптов, которые помогут разобраться с непонятным кодом. Затем выберите любой фрагмент кода с занятий и проверьте эти промпты в GigaСhat.</t>
+  </si>
+  <si>
+    <t>["Есть ли в коде какие-либо условные операторы или циклы, и как они
+влияют на выполнение
+программы?",
+"Что делает каждая строка кода и как она влияет на общий результат?"]</t>
+  </si>
+  <si>
+    <t>Какие основные шаги поиска объектов по цвету описаны в видеоролике?</t>
+  </si>
+  <si>
+    <t>Преобразование изображения в нужное цветовое пространство, установка
+порогов для поиска, создание маски для изображения</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,13 +352,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C27" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C33" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C33" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F284BC-28A2-453E-8CDA-9748C0281436}" name="Description" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{72D171CC-B0FC-468F-BD45-BAC98963EC86}" name="Homework" dataDxfId="1"/>
@@ -666,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -978,10 +1034,77 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="55.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6010</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="82.8">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6010</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27.6">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6010</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="69">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6011</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="75">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6011</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27.6">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6011</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\scrapper\super-waffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8307FD-305B-410A-9C1E-4B0E74F4CE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C906E-FB6E-4B9E-899E-A7A099C46533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">Выберите несколько правильных ответов. Вы хотите, чтобы GigaСhat предложил вам идеальное место для отдыха. Какие элементы в промпте должны быть для подходящего ответа? Составьте из этих элементов промпт в GigaСhat.
 </t>
@@ -231,8 +231,76 @@
 </t>
   </si>
   <si>
+    <t>Нейросеточка анализировала файл с последовательностью целых чисел (от -10 000 до 10 000) и обнаружила интересную закономерность. Она хочет найти:
+Все пары соседних чисел, где:
+Только одно число в паре оканчивается на 3 (учтите, что для отрицательных чисел остаток от деления на 10 работает нестандартно!)
+Сумма квадратов чисел пары ≥ квадрата максимального числа в последовательности, оканчивающегося на 3
+В результате нужно вывести:
+Количество таких пар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Искусственный интеллект анализирует текстовые файлы, содержащие последовательности символов S, R и T (объёмом до 1 миллиона символов). Алгоритму необходимо определить длину самой длинной непрерывной подпоследовательности из символов R.
+Технические требования:
+Входные данные: текстовый файл, содержащий только символы S, R, T
+Гарантируется наличие минимум одного символа R в файле
+Выходные данные: целое число - максимальное количество подряд идущих R
+</t>
+  </si>
+  <si>
+    <t>{"Эта функция показывает тип данных переменной или объекта.":"type()",
+"Генерирует последовательность чисел, которая обычно используется в циклах.": "range()",
+"Возвращает результат возведения числа в степень, также может принимать модуль для вычисления по модулю.": "pow()",
+"Преобразует целое число в его двоичное представление в виде строки, добавляя префикс "0b".": "bin()"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задайте промпт для ЯндексGPT: Какая строка кода предназначена для поворота изображения по часовой стрелке на 90 градусов. Выберите правильный ответ.
+</t>
+  </si>
+  <si>
+    <t>rotated image = cv2.rotate(image,
+c2.ROTATE _90_CLOCKWISE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ниже предложен код программы.
+Используя GigaChat, определите, в какой строке была допущена ошибка при условии, что необходимо было повернуть изображение против часовой стрелки? В качестве ответа введите номер строки.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое пиксель в цифровом изображении?
+</t>
+  </si>
+  <si>
+    <t>Наименьшая единица цифрового изображения, содержащая информацию
+о его цвете и яркости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сопоставьте цветовые пространства с их описанием. Затем создайте промпт в YandexGPT для получения дополнительной информации о цветовых пространствах.
+</t>
+  </si>
+  <si>
+    <t>{"Используется в цифровых экранах и камерах. Основано на трех цветах: красном, зеленом и синем": "RGB",
+"Цветовое пространство, описывающее цвет через оттенок, насыщенность и значение яркости": "HSV",
+"Используется по умолчанию в библиотеке OpenCV": "BGR"}</t>
+  </si>
+  <si>
+    <t>Вы изучаете новую тему по работе с библиотекой OpenCV и видите код, который не понимаете. Выберите несколько вариантов промптов, которые помогут разобраться с непонятным кодом. Затем выберите любой фрагмент кода с занятий и проверьте эти промпты в GigaСhat.</t>
+  </si>
+  <si>
+    <t>["Есть ли в коде какие-либо условные операторы или циклы, и как они
+влияют на выполнение
+программы?",
+"Что делает каждая строка кода и как она влияет на общий результат?"]</t>
+  </si>
+  <si>
+    <t>Какие основные шаги поиска объектов по цвету описаны в видеоролике?</t>
+  </si>
+  <si>
+    <t>Преобразование изображения в нужное цветовое пространство, установка
+порогов для поиска, создание маски для изображения</t>
+  </si>
+  <si>
     <t>def calculate_price(price):
-    if price &gt; 500:
+    if price &gt; 1500:
         discount = price * 0.25
         return price - discount
     else:
@@ -244,72 +312,96 @@
 print(result)</t>
   </si>
   <si>
-    <t>Нейросеточка анализировала файл с последовательностью целых чисел (от -10 000 до 10 000) и обнаружила интересную закономерность. Она хочет найти:
-Все пары соседних чисел, где:
-Только одно число в паре оканчивается на 3 (учтите, что для отрицательных чисел остаток от деления на 10 работает нестандартно!)
-Сумма квадратов чисел пары ≥ квадрата максимального числа в последовательности, оканчивающегося на 3
-В результате нужно вывести:
-Количество таких пар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Искусственный интеллект анализирует текстовые файлы, содержащие последовательности символов S, R и T (объёмом до 1 миллиона символов). Алгоритму необходимо определить длину самой длинной непрерывной подпоследовательности из символов R.
-Технические требования:
-Входные данные: текстовый файл, содержащий только символы S, R, T
-Гарантируется наличие минимум одного символа R в файле
-Выходные данные: целое число - максимальное количество подряд идущих R
-</t>
-  </si>
-  <si>
-    <t>{"Эта функция показывает тип данных переменной или объекта.":"type()",
-"Генерирует последовательность чисел, которая обычно используется в циклах.": "range()",
-"Возвращает результат возведения числа в степень, также может принимать модуль для вычисления по модулю.": "pow()",
-"Преобразует целое число в его двоичное представление в виде строки, добавляя префикс "0b".": "bin()"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задайте промпт для ЯндексGPT: Какая строка кода предназначена для поворота изображения по часовой стрелке на 90 градусов. Выберите правильный ответ.
-</t>
-  </si>
-  <si>
-    <t>rotated image = cv2.rotate(image,
-c2.ROTATE _90_CLOCKWISE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ниже предложен код программы.
-Используя GigaChat, определите, в какой строке была допущена ошибка при условии, что необходимо было повернуть изображение против часовой стрелки? В качестве ответа введите номер строки.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что такое пиксель в цифровом изображении?
-</t>
-  </si>
-  <si>
-    <t>Наименьшая единица цифрового изображения, содержащая информацию
-о его цвете и яркости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сопоставьте цветовые пространства с их описанием. Затем создайте промпт в YandexGPT для получения дополнительной информации о цветовых пространствах.
-</t>
-  </si>
-  <si>
-    <t>{"Используется в цифровых экранах и камерах. Основано на трех цветах: красном, зеленом и синем": "RGB",
-"Цветовое пространство, описывающее цвет через оттенок, насыщенность и значение яркости": "HSV",
-"Используется по умолчанию в библиотеке OpenCV": "BGR"}</t>
-  </si>
-  <si>
-    <t>Вы изучаете новую тему по работе с библиотекой OpenCV и видите код, который не понимаете. Выберите несколько вариантов промптов, которые помогут разобраться с непонятным кодом. Затем выберите любой фрагмент кода с занятий и проверьте эти промпты в GigaСhat.</t>
-  </si>
-  <si>
-    <t>["Есть ли в коде какие-либо условные операторы или циклы, и как они
-влияют на выполнение
-программы?",
-"Что делает каждая строка кода и как она влияет на общий результат?"]</t>
-  </si>
-  <si>
-    <t>Какие основные шаги поиска объектов по цвету описаны в видеоролике?</t>
-  </si>
-  <si>
-    <t>Преобразование изображения в нужное цветовое пространство, установка
-порогов для поиска, создание маски для изображения</t>
+    <t>Представьте, что вы не понимаете, зачем в коде используется переменная с именем «_». Выберите из предложенных вариантов промптов тот, который поможет вам получить ясное объяснение этого использования. Затем примените выбранный промпт в GigaChat.</t>
+  </si>
+  <si>
+    <t>Что означает переменная "_" в этом коде и зачем она используется? Мне нужно понять её назначение и влияние на выполнение программы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое каскады Хаара?
+</t>
+  </si>
+  <si>
+    <t>Метод, используемый для обнаружения объектов на изображениях,
+названный в честь венгерского математика Альфреда Хаара.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задайте вопрос в GigaChat о том,  для чего предназначена функция  
+cv2.flip()
+Выберите наиболее подходящий вариант ответа. 
+</t>
+  </si>
+  <si>
+    <t>Для зеркального переворачивания изображения по горизонтали или
+вертикали.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие детали должны быть прописаны в промпте, чтобы получился подобный результат? Проверьте свой ответ с помощью Kandinsky. Выберите наиболее подходящий промпт,.
+</t>
+  </si>
+  <si>
+    <t>Капибара с апельсинами плавает в бассейне на закате.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Упорядочите действия для поиска цветного объекта в видеопотоке. Расставьте пункты в правильном порядке.
+1. Применение HSV-маски к каждому кадру видеопотока.
+2. Открытие видеофайла.
+3. Определение границ цветового диапазона для создания цветовой маски.
+4. Преобразование каждого кадра в цветовое пространство HSV.
+5. Обрезка кадра по размерам области с искомым объектом.
+6. Демонстрация результатов.
+В качестве ответа введите порядковые номера без лишних знаков препинания и пробелов
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите один вариант ответа. Какой алгоритм нужно выполнить, чтобы GigaChat посоветовал нужный вариант при выборе, например, одной идеи? Затем составьте промпт по такому алгоритму GigaChat.
+</t>
+  </si>
+  <si>
+    <t>1.3апрос совета. 2. Цель совета. 3.Описание ситуации. .Перечисление
+вариантов</t>
+  </si>
+  <si>
+    <t>Представьте, что вы получили 10 идей от нейросети для сплочения команды, но они не совсем соответствуют вашим ожиданиям. Некоторые идеи не подходят для вашей компании. Как вы можете улучшить результат? Выберите один вариант ответа и составьте промпт в YandexGPT, применив выбранный вариант.</t>
+  </si>
+  <si>
+    <t>Написать промпт на уточнение, прояснив, какие идеи вы хотите видеть:  «Мне нужны реальные, выполнимые идеи для того, чтобы команда лучше узнала друг друга»</t>
+  </si>
+  <si>
+    <t>Как называется методика, при которой участники собираются и вслух думают над конкретной задачей, высказывая любые мысли, даже самые необычные, для нахождения наилучшего варианта решения?
+ИнструкцииСведения</t>
+  </si>
+  <si>
+    <t>Мозговой штурм</t>
+  </si>
+  <si>
+    <t>Какой промпт нужно составить по биологии по теме «Учение об эволюции» для того, чтобы получить тест из 5 вопросов с вариантами ответов.
+Проверьте выбранный промпт в YandexGPT.</t>
+  </si>
+  <si>
+    <t>Составь тест из 5 вопросов по биологии на тему « Учение об эволюции».
+Каждый вопрос должен содержать 4 варианта ответа, из которых один
+должен быть правильным</t>
+  </si>
+  <si>
+    <t>Как можно использовать искусственный интеллект для подготовки к домашнему заданию или контрольной работе?</t>
+  </si>
+  <si>
+    <t>[
+"Искусственный интеллект может объяснить сложные темы и помочь
+разобраться в предмете.",
+"Переводить текст с одного языка на другой"
+]</t>
+  </si>
+  <si>
+    <t>Как можно использовать искусственный интеллект для подготовки к экзамену?</t>
+  </si>
+  <si>
+    <t>[
+"Искусственный интеллект может создать персонализированный план
+подготовки."
+"Изменять стиль текста"
+]</t>
   </si>
 </sst>
 </file>
@@ -394,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C33" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C33" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}" name="Table1" displayName="Table1" ref="A1:C44" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C44" xr:uid="{37C9E142-3326-4213-AC98-937F8298D434}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F284BC-28A2-453E-8CDA-9748C0281436}" name="Description" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{72D171CC-B0FC-468F-BD45-BAC98963EC86}" name="Homework" dataDxfId="1"/>
@@ -722,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -987,7 +1079,7 @@
         <v>6009</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1009,12 +1101,12 @@
         <v>6009</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="193.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>6009</v>
@@ -1025,7 +1117,7 @@
     </row>
     <row r="27" spans="1:3" ht="207">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>6009</v>
@@ -1036,18 +1128,18 @@
     </row>
     <row r="28" spans="1:3" ht="55.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>6010</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="82.8">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
         <v>6010</v>
@@ -1058,46 +1150,167 @@
     </row>
     <row r="30" spans="1:3" ht="27.6">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>6010</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="69">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>6011</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
         <v>6011</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27.6">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1">
         <v>6011</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="75">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6012</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27.6">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6012</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="69">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6013</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="55.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6013</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="193.2">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6013</v>
+      </c>
+      <c r="C38" s="2">
+        <v>245316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="55.2">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6014</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6014</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="69">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6014</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="55.2">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6015</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="69">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6015</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="69">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6015</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C906E-FB6E-4B9E-899E-A7A099C46533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCA03A-7CD4-4C08-8464-025497D90F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
@@ -181,13 +181,6 @@
 "Объясни, используя простые слова","Объясни шаг за шагом"]</t>
   </si>
   <si>
-    <t>{"Искажают лицо пользователя и добавляют различные элементы: надписи, очки, шляпы.": "Модификаторы",
-"Маски-тесты и эффекты со случайным выбором внешности или персонажа.": "AR-игры",
-"Изменяют или улучшают внешний вид пользователя. Они могут изменить цвет глаз, наложить макияж или татуировку, а также выровнять тон кожи.": "Бьюти-маски",
-"Накладывают на изображение различные эффекты, например, изменение фона, регулировка цвета или размытие.": "Маски-фильтры",
-"Добавляют в окружающее пространство различные объекты: персонажей из мультфильмов, животных или предметы интерьера.": "AR-объекты"}</t>
-  </si>
-  <si>
     <t>С помощью ЯндексGPT напишите программу на Python, которая запрашивает у пользователя целое число и определяет,  является ли оно четным или нечетным. 
 Условия задачи:
 1. Программа должна запрашивать у пользователя ввод целого числа (число нужно вводить без дополнительных символов в input()).
@@ -402,6 +395,13 @@
 подготовки."
 "Изменять стиль текста"
 ]</t>
+  </si>
+  <si>
+    <t>{"Искажают лицо пользователя и добавляют различные элементы: надписи, очки, шляпы.": "Маски-фильтры",
+"Маски-тесты и эффекты со случайным выбором внешности или персонажа.": "AR-игры",
+"Изменяют или улучшают внешний вид пользователя. Они могут изменить цвет глаз, наложить макияж или татуировку, а также выровнять тон кожи.": "Бьюти-маски",
+"Накладывают на изображение различные эффекты, например, изменение фона, регулировка цвета или размытие.": "Модификаторы",
+"Добавляют в окружающее пространство различные объекты: персонажей из мультфильмов, животных или предметы интерьера.": "AR-объекты"}</t>
   </si>
 </sst>
 </file>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1013,7 +1013,7 @@
         <v>6007</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="55.2">
@@ -1040,51 +1040,51 @@
     </row>
     <row r="20" spans="1:3" ht="193.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>6008</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="124.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>6008</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>6008</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="96.6">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>6009</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>6009</v>
@@ -1095,18 +1095,18 @@
     </row>
     <row r="25" spans="1:3" ht="179.4">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>6009</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="193.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>6009</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="27" spans="1:3" ht="207">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>6009</v>
@@ -1128,18 +1128,18 @@
     </row>
     <row r="28" spans="1:3" ht="55.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>6010</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="82.8">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>6010</v>
@@ -1150,95 +1150,95 @@
     </row>
     <row r="30" spans="1:3" ht="27.6">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>6010</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="69">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
         <v>6011</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>6011</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27.6">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1">
         <v>6011</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1">
         <v>6012</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27.6">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1">
         <v>6012</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="69">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>6013</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="55.2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1">
         <v>6013</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="193.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1">
         <v>6013</v>
@@ -1249,68 +1249,68 @@
     </row>
     <row r="39" spans="1:3" ht="55.2">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
         <v>6014</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1">
         <v>6014</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="69">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1">
         <v>6014</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="55.2">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1">
         <v>6015</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="69">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1">
         <v>6015</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="69">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1">
         <v>6015</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCA03A-7CD4-4C08-8464-025497D90F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03807024-4BF4-4D60-966C-E6D09B94D2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03807024-4BF4-4D60-966C-E6D09B94D2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE6E06C-ACEC-415E-98E9-8BC68F492F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6DFFBB-5527-4E8F-8B2C-0354AA418C07}"/>
   </bookViews>
@@ -164,12 +164,6 @@
 </t>
   </si>
   <si>
-    <t>["Фильм, который вы смотрели последний раз",
-"Длительность",
-"Сюжет",
-"Жанр"]</t>
-  </si>
-  <si>
     <t>Что такое эффект "facemodel"?</t>
   </si>
   <si>
@@ -402,6 +396,11 @@
 "Изменяют или улучшают внешний вид пользователя. Они могут изменить цвет глаз, наложить макияж или татуировку, а также выровнять тон кожи.": "Бьюти-маски",
 "Накладывают на изображение различные эффекты, например, изменение фона, регулировка цвета или размытие.": "Модификаторы",
 "Добавляют в окружающее пространство различные объекты: персонажей из мультфильмов, животных или предметы интерьера.": "AR-объекты"}</t>
+  </si>
+  <si>
+    <t>["Длительность",
+"Сюжет",
+"Жанр"]</t>
   </si>
 </sst>
 </file>
@@ -816,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68669CEC-9710-44EF-9E8C-81D516134609}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -991,7 +990,7 @@
         <v>6006</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27.6">
@@ -1013,7 +1012,7 @@
         <v>6007</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="55.2">
@@ -1024,67 +1023,67 @@
         <v>6007</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27.6">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>6007</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="193.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>6008</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="124.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>6008</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>6008</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="96.6">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>6009</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>6009</v>
@@ -1095,18 +1094,18 @@
     </row>
     <row r="25" spans="1:3" ht="179.4">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>6009</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="193.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <v>6009</v>
@@ -1117,7 +1116,7 @@
     </row>
     <row r="27" spans="1:3" ht="207">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>6009</v>
@@ -1128,18 +1127,18 @@
     </row>
     <row r="28" spans="1:3" ht="55.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>6010</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="82.8">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>6010</v>
@@ -1150,95 +1149,95 @@
     </row>
     <row r="30" spans="1:3" ht="27.6">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>6010</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="69">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>6011</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>6011</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27.6">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>6011</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1">
         <v>6012</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27.6">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1">
         <v>6012</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="69">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1">
         <v>6013</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="55.2">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1">
         <v>6013</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="193.2">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1">
         <v>6013</v>
@@ -1249,68 +1248,68 @@
     </row>
     <row r="39" spans="1:3" ht="55.2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1">
         <v>6014</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1">
         <v>6014</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="69">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1">
         <v>6014</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="55.2">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1">
         <v>6015</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="69">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1">
         <v>6015</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="69">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1">
         <v>6015</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
